--- a/simulation_data/iterative_algorithm/i_error_level_4_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_4_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.76112604030239</v>
+        <v>90.71745841804862</v>
       </c>
       <c r="D2" t="n">
-        <v>7.813959584571769</v>
+        <v>7.281796212018923</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.44334929882365</v>
+        <v>87.96235238890142</v>
       </c>
       <c r="D3" t="n">
-        <v>5.940321741392699</v>
+        <v>6.624168595521935</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.19376438222598</v>
+        <v>87.75947924499009</v>
       </c>
       <c r="D4" t="n">
-        <v>6.955238645112756</v>
+        <v>6.527154051719592</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.68617041741265</v>
+        <v>86.61062518720543</v>
       </c>
       <c r="D5" t="n">
-        <v>7.429694691643937</v>
+        <v>6.537104304522569</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.33074266207574</v>
+        <v>86.9046281104221</v>
       </c>
       <c r="D6" t="n">
-        <v>7.377985202057697</v>
+        <v>5.999261118154273</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.97458970672017</v>
+        <v>84.67758490385721</v>
       </c>
       <c r="D7" t="n">
-        <v>7.191991785183938</v>
+        <v>7.521763033600382</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.40260074513247</v>
+        <v>84.12880965388715</v>
       </c>
       <c r="D8" t="n">
-        <v>6.644849225491136</v>
+        <v>7.503376551967941</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.54249350958034</v>
+        <v>83.05590224558456</v>
       </c>
       <c r="D9" t="n">
-        <v>7.178747474423925</v>
+        <v>6.977825949285887</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.61803710684217</v>
+        <v>81.79288184009532</v>
       </c>
       <c r="D10" t="n">
-        <v>7.834398000608006</v>
+        <v>7.141421824589626</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.65464847690463</v>
+        <v>80.67010177016542</v>
       </c>
       <c r="D11" t="n">
-        <v>7.488413336831949</v>
+        <v>6.870289925224713</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.52016615889158</v>
+        <v>79.89294692882311</v>
       </c>
       <c r="D12" t="n">
-        <v>7.532009238222955</v>
+        <v>7.252033797617039</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.19956049154675</v>
+        <v>80.07603712559833</v>
       </c>
       <c r="D13" t="n">
-        <v>7.783542067041575</v>
+        <v>6.827587313417362</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.96643969063079</v>
+        <v>77.21682658080843</v>
       </c>
       <c r="D14" t="n">
-        <v>7.508352446789774</v>
+        <v>7.388788764681321</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.46783259872545</v>
+        <v>76.95310118089594</v>
       </c>
       <c r="D15" t="n">
-        <v>7.692290234102179</v>
+        <v>7.559463553746812</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.38600263296102</v>
+        <v>75.53602802063826</v>
       </c>
       <c r="D16" t="n">
-        <v>7.061831386922711</v>
+        <v>7.328788891510047</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.67048078734597</v>
+        <v>74.75906714963756</v>
       </c>
       <c r="D17" t="n">
-        <v>7.299394920097813</v>
+        <v>6.786274106971939</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.98876139747416</v>
+        <v>73.90889963215676</v>
       </c>
       <c r="D18" t="n">
-        <v>7.413994843101075</v>
+        <v>6.956013540193697</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.61166919674274</v>
+        <v>73.37803315369601</v>
       </c>
       <c r="D19" t="n">
-        <v>7.199075748036308</v>
+        <v>6.44340330538623</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.48368356766792</v>
+        <v>72.33502975179381</v>
       </c>
       <c r="D20" t="n">
-        <v>7.631310564669223</v>
+        <v>6.867958404438621</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.741751966198</v>
+        <v>71.7589902963969</v>
       </c>
       <c r="D21" t="n">
-        <v>6.216780506488993</v>
+        <v>6.831629914572919</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.24004368941215</v>
+        <v>69.88593482605303</v>
       </c>
       <c r="D22" t="n">
-        <v>7.409868210356136</v>
+        <v>7.01360668059329</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.57035083361063</v>
+        <v>67.7653795145407</v>
       </c>
       <c r="D23" t="n">
-        <v>8.352916807524258</v>
+        <v>6.821402931432431</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.71453125365375</v>
+        <v>68.43883959272236</v>
       </c>
       <c r="D24" t="n">
-        <v>6.733249935525149</v>
+        <v>7.202151407098452</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.68036708942316</v>
+        <v>68.66047842293345</v>
       </c>
       <c r="D25" t="n">
-        <v>6.911786842874007</v>
+        <v>6.062312248857554</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.27159065652742</v>
+        <v>65.22175098285456</v>
       </c>
       <c r="D26" t="n">
-        <v>6.378263583592292</v>
+        <v>6.911984996561196</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.33886509792666</v>
+        <v>64.93975303803946</v>
       </c>
       <c r="D27" t="n">
-        <v>8.337496456579714</v>
+        <v>6.812363181074328</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.17645511203085</v>
+        <v>64.11485062074635</v>
       </c>
       <c r="D28" t="n">
-        <v>7.120660756819036</v>
+        <v>7.365855072171565</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.59728835274515</v>
+        <v>63.09020330318899</v>
       </c>
       <c r="D29" t="n">
-        <v>6.878347474299841</v>
+        <v>7.57418629463922</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.5901867076959</v>
+        <v>61.13305984490962</v>
       </c>
       <c r="D30" t="n">
-        <v>7.108178294801885</v>
+        <v>7.26023509973162</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.25377542306745</v>
+        <v>61.61405667286342</v>
       </c>
       <c r="D31" t="n">
-        <v>5.936166371489771</v>
+        <v>6.713493536643889</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.94527283938604</v>
+        <v>60.13797075547093</v>
       </c>
       <c r="D32" t="n">
-        <v>7.343925096329952</v>
+        <v>6.975914196918111</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.3059423625327</v>
+        <v>59.75259976744448</v>
       </c>
       <c r="D33" t="n">
-        <v>7.719593186180782</v>
+        <v>7.369116533097219</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.13149487203417</v>
+        <v>59.08653135126509</v>
       </c>
       <c r="D34" t="n">
-        <v>7.272356045555974</v>
+        <v>6.464126270712396</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.10581590499262</v>
+        <v>56.79602369664777</v>
       </c>
       <c r="D35" t="n">
-        <v>8.036997761609879</v>
+        <v>7.579763637893208</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.71678718021651</v>
+        <v>55.58164126891106</v>
       </c>
       <c r="D36" t="n">
-        <v>6.907214849997979</v>
+        <v>6.637098071324253</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.35480056754484</v>
+        <v>54.69950761899909</v>
       </c>
       <c r="D37" t="n">
-        <v>8.272798487133016</v>
+        <v>7.038095865911617</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.91487825099007</v>
+        <v>54.84082871923598</v>
       </c>
       <c r="D38" t="n">
-        <v>7.618184496766164</v>
+        <v>5.596391815458141</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.62928787742074</v>
+        <v>51.74233476752247</v>
       </c>
       <c r="D39" t="n">
-        <v>6.905572210023115</v>
+        <v>7.045487060240068</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.63640692740405</v>
+        <v>49.75634388242977</v>
       </c>
       <c r="D40" t="n">
-        <v>8.74150646970641</v>
+        <v>7.314148923565447</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.30478471872795</v>
+        <v>52.10492205080944</v>
       </c>
       <c r="D41" t="n">
-        <v>7.452752609102512</v>
+        <v>6.80190513999903</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.26532835720114</v>
+        <v>51.12026743060411</v>
       </c>
       <c r="D42" t="n">
-        <v>7.115962780184537</v>
+        <v>6.375115413510109</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.04879388857243</v>
+        <v>49.58898961281788</v>
       </c>
       <c r="D43" t="n">
-        <v>7.222285235723361</v>
+        <v>7.63258233718447</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14505419940117</v>
+        <v>46.57186253237544</v>
       </c>
       <c r="D44" t="n">
-        <v>7.359667945031847</v>
+        <v>7.179456385756266</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.69596997196273</v>
+        <v>46.01475674938398</v>
       </c>
       <c r="D45" t="n">
-        <v>7.433527779025181</v>
+        <v>6.98790096900415</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.48454698387685</v>
+        <v>47.27063556588188</v>
       </c>
       <c r="D46" t="n">
-        <v>7.090190868969084</v>
+        <v>6.875549549538904</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.77037781689837</v>
+        <v>45.4160133997715</v>
       </c>
       <c r="D47" t="n">
-        <v>8.214462975427484</v>
+        <v>7.769107576939258</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.05836687459023</v>
+        <v>42.82078221834285</v>
       </c>
       <c r="D48" t="n">
-        <v>6.695315400425479</v>
+        <v>6.947631000340747</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.8854639098054</v>
+        <v>42.89765483844295</v>
       </c>
       <c r="D49" t="n">
-        <v>6.739217826766196</v>
+        <v>6.707716674573138</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.401027108606</v>
+        <v>43.222828114374</v>
       </c>
       <c r="D50" t="n">
-        <v>7.118059376789885</v>
+        <v>6.415305757212437</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.70499847946687</v>
+        <v>40.72787290721292</v>
       </c>
       <c r="D51" t="n">
-        <v>7.146764461901105</v>
+        <v>7.830256313781441</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.04570422085464</v>
+        <v>39.23794049233583</v>
       </c>
       <c r="D52" t="n">
-        <v>8.051460716380104</v>
+        <v>7.474515146663075</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.7137807616576</v>
+        <v>38.94298076072752</v>
       </c>
       <c r="D53" t="n">
-        <v>7.672303540720742</v>
+        <v>7.083567773616326</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.21471162958724</v>
+        <v>38.61812363008389</v>
       </c>
       <c r="D54" t="n">
-        <v>6.290257023533965</v>
+        <v>6.683534972033982</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.98430938785496</v>
+        <v>35.53799063840859</v>
       </c>
       <c r="D55" t="n">
-        <v>7.223232624036054</v>
+        <v>7.380164802698017</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.1722382701138</v>
+        <v>34.48768310748962</v>
       </c>
       <c r="D56" t="n">
-        <v>7.61554545902357</v>
+        <v>7.542099893113072</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.91403666176368</v>
+        <v>34.82681038206857</v>
       </c>
       <c r="D57" t="n">
-        <v>7.073459443201026</v>
+        <v>6.726886378289988</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.88146832124858</v>
+        <v>34.88722941843272</v>
       </c>
       <c r="D58" t="n">
-        <v>7.811045855559314</v>
+        <v>6.923191292167956</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.70288657659426</v>
+        <v>32.6264194670045</v>
       </c>
       <c r="D59" t="n">
-        <v>7.399972388197553</v>
+        <v>7.900285090531598</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.67140394635417</v>
+        <v>32.26150750698367</v>
       </c>
       <c r="D60" t="n">
-        <v>7.679480147297952</v>
+        <v>6.793954998156982</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.34125053070712</v>
+        <v>30.41216975796104</v>
       </c>
       <c r="D61" t="n">
-        <v>7.713442705326384</v>
+        <v>7.453981050492682</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.62827578898638</v>
+        <v>29.88881110928445</v>
       </c>
       <c r="D62" t="n">
-        <v>6.723961585114381</v>
+        <v>7.437315871195415</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.89239096465062</v>
+        <v>28.87453424501054</v>
       </c>
       <c r="D63" t="n">
-        <v>7.586062736710052</v>
+        <v>7.75042331605798</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.62547931694008</v>
+        <v>28.07353414292298</v>
       </c>
       <c r="D64" t="n">
-        <v>7.181980499568461</v>
+        <v>7.660452002633698</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.41302835270985</v>
+        <v>26.93153175928988</v>
       </c>
       <c r="D65" t="n">
-        <v>7.102390117195475</v>
+        <v>7.741188680293688</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.01422534780317</v>
+        <v>25.84883924301425</v>
       </c>
       <c r="D66" t="n">
-        <v>6.648326262035915</v>
+        <v>7.43167379152903</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.07545016587285</v>
+        <v>24.90739576991734</v>
       </c>
       <c r="D67" t="n">
-        <v>7.628727836114335</v>
+        <v>7.281500404422975</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.93349126589635</v>
+        <v>25.34462010657168</v>
       </c>
       <c r="D68" t="n">
-        <v>7.920005054435961</v>
+        <v>6.896991341499199</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.27757788719182</v>
+        <v>22.98375419620025</v>
       </c>
       <c r="D69" t="n">
-        <v>6.642906383099535</v>
+        <v>7.11351090552154</v>
       </c>
     </row>
   </sheetData>
